--- a/data/example/Power_Storage.xlsx
+++ b/data/example/Power_Storage.xlsx
@@ -41,13 +41,13 @@
     </font>
     <font>
       <name val="Aptos"/>
-      <color rgb="000000FF"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Aptos"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="18"/>
     </font>
     <font>
@@ -64,38 +64,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008080"/>
-        <bgColor rgb="00008080"/>
+        <fgColor rgb="FF008080"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAEEF3"/>
-        <bgColor rgb="00DAEEF3"/>
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFDAEEF3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
-        <bgColor rgb="00CCFFCC"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>

--- a/data/example/Power_Storage.xlsx
+++ b/data/example/Power_Storage.xlsx
@@ -574,7 +574,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
@@ -598,15 +598,15 @@
     <col width="20.7109375" customWidth="1" min="22" max="22"/>
     <col width="22.7109375" customWidth="1" min="23" max="23"/>
     <col width="15.7109375" customWidth="1" min="24" max="24"/>
-    <col width="20.2109375" customWidth="1" min="25" max="25"/>
-    <col width="20.2109375" customWidth="1" min="26" max="26"/>
+    <col width="20.140625" customWidth="1" min="25" max="25"/>
+    <col width="20.140625" customWidth="1" min="26" max="26"/>
     <col width="15.7109375" customWidth="1" min="27" max="27"/>
     <col width="15.7109375" customWidth="1" min="28" max="28"/>
-    <col width="24.5709375" customWidth="1" min="29" max="29"/>
-    <col width="24.5709375" customWidth="1" min="30" max="30"/>
+    <col width="24.5703125" customWidth="1" min="29" max="29"/>
+    <col width="24.5703125" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>

--- a/data/example/Power_Storage.xlsx
+++ b/data/example/Power_Storage.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.0.1</t>
+          <t>v0.0.2</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="Q3" s="5" t="inlineStr">
         <is>
-          <t>IsLDS</t>
+          <t>IsLDES</t>
         </is>
       </c>
       <c r="R3" s="5" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="Q4" s="6" t="inlineStr">
         <is>
-          <t>IsLDS</t>
+          <t>IsLDES</t>
         </is>
       </c>
       <c r="R4" s="6" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="Q5" s="7" t="inlineStr">
         <is>
-          <t>Whether the storage unit is a long-duration storage (1) or not (0)</t>
+          <t>Whether the storage unit is a long-duration energy storage (1) or not (0)</t>
         </is>
       </c>
       <c r="R5" s="7" t="inlineStr">

--- a/data/example/Power_Storage.xlsx
+++ b/data/example/Power_Storage.xlsx
@@ -557,7 +557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -606,7 +606,7 @@
     <col width="24.5709375" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
@@ -2004,6 +2004,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>